--- a/biology/Biochimie/Ertugliflozine/Ertugliflozine.xlsx
+++ b/biology/Biochimie/Ertugliflozine/Ertugliflozine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ertugliflozine (nom commercial Steglatro) est un médicament destiné au traitement du diabète de type 2. Aux États-Unis, il a été approuvé par la Food and Drug Administration pour une utilisation en monothérapie et en association à dose fixe avec la sitagliptine ou la metformine[2]. L'agence européenne des médicaments lui a accordé en mars 2018 une AMM au bénéfice du laboratoire Merck Sharp &amp; Dohme, sous forme de comprimés pelliculés dosés à 5 et 15 mg[3]. À partir d'une cohorte de patients atteints d'athérosclérose et de diabète type II, l'ertugliflozine ne provoque pas plus d'effets indésirables graves qu'un placebo[4].
-Les effets secondaires les plus courants sont des infections fongiques du vagin et d'autres infections du système reproducteur féminin[5].
-L'ertugliflozine est un inhibiteur du cotransporteur sodium/glucose 2 (SGLT2)[6],[5]. Elle appartient à la classe des gliflozines. 
-Quatre associations fixes de ertugliflozine et de metformine sont disponibles en Europe sous le nom de spécialité Segluromet, commercialisée par Merck Sharp &amp; Dohme (EMEA/H/C/004314). Deux associations fixes ertugliflozine/sitagliptine sont également commercialisés en Europe, toujours par Merck Sharp &amp; Dohme, sous le nom de spécialité de Steglujan (EMEA/H/C/004313 - IG/1157)[7],[8],[9],[10].
+L'ertugliflozine (nom commercial Steglatro) est un médicament destiné au traitement du diabète de type 2. Aux États-Unis, il a été approuvé par la Food and Drug Administration pour une utilisation en monothérapie et en association à dose fixe avec la sitagliptine ou la metformine. L'agence européenne des médicaments lui a accordé en mars 2018 une AMM au bénéfice du laboratoire Merck Sharp &amp; Dohme, sous forme de comprimés pelliculés dosés à 5 et 15 mg. À partir d'une cohorte de patients atteints d'athérosclérose et de diabète type II, l'ertugliflozine ne provoque pas plus d'effets indésirables graves qu'un placebo.
+Les effets secondaires les plus courants sont des infections fongiques du vagin et d'autres infections du système reproducteur féminin.
+L'ertugliflozine est un inhibiteur du cotransporteur sodium/glucose 2 (SGLT2),. Elle appartient à la classe des gliflozines. 
+Quatre associations fixes de ertugliflozine et de metformine sont disponibles en Europe sous le nom de spécialité Segluromet, commercialisée par Merck Sharp &amp; Dohme (EMEA/H/C/004314). Deux associations fixes ertugliflozine/sitagliptine sont également commercialisés en Europe, toujours par Merck Sharp &amp; Dohme, sous le nom de spécialité de Steglujan (EMEA/H/C/004313 - IG/1157).
 </t>
         </is>
       </c>
@@ -517,9 +529,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Métabolisme
-Après administration orale, l'ertugliflozine est presque complètement absorbée par l'intestin et ne subit aucun effet de premier passage significatif . La concentrations  maximale plasmatiques  est atteinte après une heure. Dans le sang circulant  93,6% du médicament  est lié aux protéines plasmatiques . L'ertugliflocine est principalement métabolisée en glucuronides par les enzymes UGT1A9 et UGT2B7 . Les enzymes du cytochrome P450 ne jouent qu'un rôle mineur dans son métabolisme[3],[6].
-La demi-vie d'élimination est estimée à 17 heures. 40,9% sont éliminés par les fèces (33,8% sous forme inchangée et 7,1% sous forme de métabolites) et 50,2% par voie urinaire (1,5% inchangé et 48,7% sous forme de métabolites). La proportion de substance inchangée dans les fécès est due probablement à un retour des  métabolites vers la substance d'origine (réaction d'hydrolyse)[3],[6].
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après administration orale, l'ertugliflozine est presque complètement absorbée par l'intestin et ne subit aucun effet de premier passage significatif . La concentrations  maximale plasmatiques  est atteinte après une heure. Dans le sang circulant  93,6% du médicament  est lié aux protéines plasmatiques . L'ertugliflocine est principalement métabolisée en glucuronides par les enzymes UGT1A9 et UGT2B7 . Les enzymes du cytochrome P450 ne jouent qu'un rôle mineur dans son métabolisme,.
+La demi-vie d'élimination est estimée à 17 heures. 40,9% sont éliminés par les fèces (33,8% sous forme inchangée et 7,1% sous forme de métabolites) et 50,2% par voie urinaire (1,5% inchangé et 48,7% sous forme de métabolites). La proportion de substance inchangée dans les fécès est due probablement à un retour des  métabolites vers la substance d'origine (réaction d'hydrolyse),.
 </t>
         </is>
       </c>
